--- a/public/customer_report.xlsx
+++ b/public/customer_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -50,6 +50,63 @@
     <t>email</t>
   </si>
   <si>
+    <t xml:space="preserve">ไอวี (ฟหก) </t>
+  </si>
+  <si>
+    <t>asdas dasd</t>
+  </si>
+  <si>
+    <t>067-467-4532</t>
+  </si>
+  <si>
+    <t>suwayuth@gmail.com</t>
+  </si>
+  <si>
+    <t>ไอวี</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>สยามโปรดักซ์</t>
+  </si>
+  <si>
+    <t>กฤษ รุ่งเจริญ</t>
+  </si>
+  <si>
+    <t>087-056-0356</t>
+  </si>
+  <si>
+    <t>kirst2534@gmail.com</t>
+  </si>
+  <si>
+    <t>Kingtons</t>
+  </si>
+  <si>
+    <t>อรธิชา รุ่งเรือง</t>
+  </si>
+  <si>
+    <t>087-567-8945</t>
+  </si>
+  <si>
+    <t>ornticha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อรุณ ฟาร์ม (กรุงเทพ) </t>
+  </si>
+  <si>
+    <t>ณัฐกรณ์ สุขใจ</t>
+  </si>
+  <si>
+    <t>064-234-5678</t>
+  </si>
+  <si>
+    <t>natthakorn@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Betagro (กรุงเทพ) </t>
   </si>
   <si>
@@ -59,10 +116,7 @@
     <t>080-798-7845</t>
   </si>
   <si>
-    <t>suwayuth@gmail.com</t>
-  </si>
-  <si>
-    <t>ไอวี</t>
+    <t xml:space="preserve">ไอวี (แสนสุข) </t>
   </si>
   <si>
     <t>วิรัตน์ สากร</t>
@@ -481,20 +535,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6:F8"/>
+      <selection activeCell="B6" sqref="B6:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="1"/>
-    <col min="2" max="2" width="32" bestFit="true" customWidth="true" style="2"/>
-    <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="2"/>
+    <col min="3" max="3" width="28" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="36" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="35" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="9.10" style="1"/>
     <col min="8" max="8" width="9.10" style="1"/>
     <col min="9" max="9" width="9.10" style="1"/>
@@ -522,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -536,13 +590,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -550,13 +604,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -584,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>13</v>
@@ -606,8 +660,91 @@
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/public/customer_report.xlsx
+++ b/public/customer_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -50,73 +50,19 @@
     <t>email</t>
   </si>
   <si>
-    <t xml:space="preserve">ไอวี (ฟหก) </t>
-  </si>
-  <si>
-    <t>asdas dasd</t>
-  </si>
-  <si>
-    <t>067-467-4532</t>
+    <t xml:space="preserve">Betagro (กรุงเทพ) </t>
+  </si>
+  <si>
+    <t>สุวยุทธ เยาวจิต</t>
+  </si>
+  <si>
+    <t>080-798-7845</t>
   </si>
   <si>
     <t>suwayuth@gmail.com</t>
   </si>
   <si>
     <t>ไอวี</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>สยามโปรดักซ์</t>
-  </si>
-  <si>
-    <t>กฤษ รุ่งเจริญ</t>
-  </si>
-  <si>
-    <t>087-056-0356</t>
-  </si>
-  <si>
-    <t>kirst2534@gmail.com</t>
-  </si>
-  <si>
-    <t>Kingtons</t>
-  </si>
-  <si>
-    <t>อรธิชา รุ่งเรือง</t>
-  </si>
-  <si>
-    <t>087-567-8945</t>
-  </si>
-  <si>
-    <t>ornticha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">อรุณ ฟาร์ม (กรุงเทพ) </t>
-  </si>
-  <si>
-    <t>ณัฐกรณ์ สุขใจ</t>
-  </si>
-  <si>
-    <t>064-234-5678</t>
-  </si>
-  <si>
-    <t>natthakorn@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betagro (กรุงเทพ) </t>
-  </si>
-  <si>
-    <t>สุวยุทธ เยาวจิต</t>
-  </si>
-  <si>
-    <t>080-798-7845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ไอวี (แสนสุข) </t>
   </si>
   <si>
     <t>วิรัตน์ สากร</t>
@@ -535,20 +481,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6:F13"/>
+      <selection activeCell="B6" sqref="B6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="1"/>
-    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="2"/>
-    <col min="3" max="3" width="28" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="32" bestFit="true" customWidth="true" style="2"/>
+    <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="36" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="35" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="9.10" style="1"/>
     <col min="8" max="8" width="9.10" style="1"/>
     <col min="9" max="9" width="9.10" style="1"/>
@@ -576,13 +522,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -590,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -604,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -638,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>13</v>
@@ -660,91 +606,8 @@
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="B9" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/public/customer_report.xlsx
+++ b/public/customer_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -50,6 +50,54 @@
     <t>email</t>
   </si>
   <si>
+    <t xml:space="preserve">ร่ำรวย จำกัด (ชลุบรี) </t>
+  </si>
+  <si>
+    <t>จริงใจ มั่นคง</t>
+  </si>
+  <si>
+    <t>067-467-4532</t>
+  </si>
+  <si>
+    <t>jingjai@gmail.com</t>
+  </si>
+  <si>
+    <t>สยามโปรดักซ์</t>
+  </si>
+  <si>
+    <t>กฤษ รุ่งเจริญ</t>
+  </si>
+  <si>
+    <t>087-056-0356</t>
+  </si>
+  <si>
+    <t>kirst2534@gmail.com</t>
+  </si>
+  <si>
+    <t>Kingtons</t>
+  </si>
+  <si>
+    <t>อรธิชา รุ่งเรือง</t>
+  </si>
+  <si>
+    <t>087-567-8945</t>
+  </si>
+  <si>
+    <t>ornticha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อรุณ ฟาร์ม (กรุงเทพ) </t>
+  </si>
+  <si>
+    <t>ณัฐกรณ์ สุขใจ</t>
+  </si>
+  <si>
+    <t>064-234-5678</t>
+  </si>
+  <si>
+    <t>natthakorn@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Betagro (กรุงเทพ) </t>
   </si>
   <si>
@@ -62,7 +110,7 @@
     <t>suwayuth@gmail.com</t>
   </si>
   <si>
-    <t>ไอวี</t>
+    <t xml:space="preserve">ไอวี (แสนสุข) </t>
   </si>
   <si>
     <t>วิรัตน์ สากร</t>
@@ -481,20 +529,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B6" sqref="B6:F8"/>
+      <selection activeCell="B6" sqref="B6:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="1"/>
-    <col min="2" max="2" width="32" bestFit="true" customWidth="true" style="2"/>
-    <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="39" bestFit="true" customWidth="true" style="2"/>
+    <col min="3" max="3" width="28" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="36" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="35" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="9.10" style="1"/>
     <col min="8" max="8" width="9.10" style="1"/>
     <col min="9" max="9" width="9.10" style="1"/>
@@ -522,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -536,13 +584,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -550,13 +598,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -584,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>13</v>
@@ -601,13 +649,81 @@
         <v>16</v>
       </c>
       <c r="D8" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/public/customer_report.xlsx
+++ b/public/customer_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -50,16 +50,16 @@
     <t>email</t>
   </si>
   <si>
-    <t xml:space="preserve">ร่ำรวย จำกัด (ชลุบรี) </t>
-  </si>
-  <si>
-    <t>จริงใจ มั่นคง</t>
+    <t xml:space="preserve">ไอวี (ฟหก) </t>
+  </si>
+  <si>
+    <t>asdas dasd</t>
   </si>
   <si>
     <t>067-467-4532</t>
   </si>
   <si>
-    <t>jingjai@gmail.com</t>
+    <t>suwayuth@gmail.com</t>
   </si>
   <si>
     <t>สยามโปรดักซ์</t>
@@ -68,7 +68,7 @@
     <t>กฤษ รุ่งเจริญ</t>
   </si>
   <si>
-    <t>087-056-0356</t>
+    <t>087-056-0358</t>
   </si>
   <si>
     <t>kirst2534@gmail.com</t>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>080-798-7845</t>
-  </si>
-  <si>
-    <t>suwayuth@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">ไอวี (แสนสุข) </t>
@@ -538,7 +535,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="1"/>
-    <col min="2" max="2" width="39" bestFit="true" customWidth="true" style="2"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="2"/>
     <col min="3" max="3" width="28" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="36" bestFit="true" customWidth="true" style="1"/>
@@ -576,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -584,13 +581,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -598,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -632,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>13</v>
@@ -700,30 +697,30 @@
         <v>28</v>
       </c>
       <c r="D11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/public/customer_report.xlsx
+++ b/public/customer_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -50,55 +50,25 @@
     <t>email</t>
   </si>
   <si>
-    <t xml:space="preserve">ร่ำรวย จำกัด (ชลุบรี) </t>
-  </si>
-  <si>
-    <t>จริงใจ มั่นคง</t>
-  </si>
-  <si>
-    <t>067-467-4532</t>
-  </si>
-  <si>
-    <t>jingjai@gmail.com</t>
-  </si>
-  <si>
-    <t>สยามโปรดักซ์</t>
-  </si>
-  <si>
-    <t>กฤษ รุ่งเจริญ</t>
-  </si>
-  <si>
-    <t>087-056-0356</t>
-  </si>
-  <si>
-    <t>kirst2534@gmail.com</t>
-  </si>
-  <si>
-    <t>Kingtons</t>
-  </si>
-  <si>
-    <t>อรธิชา รุ่งเรือง</t>
-  </si>
-  <si>
-    <t>087-567-8945</t>
-  </si>
-  <si>
-    <t>ornticha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">อรุณ ฟาร์ม (กรุงเทพ) </t>
-  </si>
-  <si>
-    <t>ณัฐกรณ์ สุขใจ</t>
-  </si>
-  <si>
-    <t>064-234-5678</t>
-  </si>
-  <si>
-    <t>natthakorn@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betagro (กรุงเทพ) </t>
+    <t>วิรัตน์ สากร</t>
+  </si>
+  <si>
+    <t>083-081-7901</t>
+  </si>
+  <si>
+    <t>wirat00@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ซัน จำกัด (ศรีราชา) </t>
+  </si>
+  <si>
+    <t>083-081-7900</t>
+  </si>
+  <si>
+    <t>wirativ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Pro Solution (กรุงเทพ) </t>
   </si>
   <si>
     <t>สุวยุทธ เยาวจิต</t>
@@ -110,16 +80,34 @@
     <t>suwayuth@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ไอวี (แสนสุข) </t>
-  </si>
-  <si>
-    <t>วิรัตน์ สากร</t>
-  </si>
-  <si>
-    <t>083-081-7916</t>
-  </si>
-  <si>
-    <t>wirativ@gmail.com</t>
+    <t>ทดสอบ</t>
+  </si>
+  <si>
+    <t>wirat@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Pro Solution (ศรีราชา) </t>
+  </si>
+  <si>
+    <t>วสันต์ ทัดแก้ว</t>
+  </si>
+  <si>
+    <t>087-567-8959</t>
+  </si>
+  <si>
+    <t>ornticha9@gmail.com</t>
+  </si>
+  <si>
+    <t>เจ พลัส</t>
+  </si>
+  <si>
+    <t>วิรัตน์000 สากร000</t>
+  </si>
+  <si>
+    <t>083-081-7000</t>
+  </si>
+  <si>
+    <t>wirat000@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -538,11 +526,11 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="1"/>
-    <col min="2" max="2" width="39" bestFit="true" customWidth="true" style="2"/>
-    <col min="3" max="3" width="28" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="45" bestFit="true" customWidth="true" style="2"/>
+    <col min="3" max="3" width="32" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="38" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="36" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="35" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="33" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="9.10" style="1"/>
     <col min="8" max="8" width="9.10" style="1"/>
     <col min="9" max="9" width="9.10" style="1"/>
@@ -570,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -584,13 +572,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -598,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -629,101 +617,101 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/customer_report.xlsx
+++ b/public/customer_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>ตู้เข้า</t>
   </si>
@@ -59,28 +59,25 @@
     <t>wirat00@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ซัน จำกัด (ศรีราชา) </t>
-  </si>
-  <si>
-    <t>083-081-7900</t>
-  </si>
-  <si>
-    <t>wirativ@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At Pro Solution (กรุงเทพ) </t>
-  </si>
-  <si>
-    <t>สุวยุทธ เยาวจิต</t>
+    <t xml:space="preserve">ซัน จำกัด (แสนสุข) </t>
+  </si>
+  <si>
+    <t>Kittipod Rungruang</t>
+  </si>
+  <si>
+    <t>081-575-2307</t>
+  </si>
+  <si>
+    <t>Mosac@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Pro Solution (แสนสุข) </t>
+  </si>
+  <si>
+    <t>ทดสอบ</t>
   </si>
   <si>
     <t>080-798-7845</t>
-  </si>
-  <si>
-    <t>suwayuth@gmail.com</t>
-  </si>
-  <si>
-    <t>ทดสอบ</t>
   </si>
   <si>
     <t>wirat@gmail.com</t>
@@ -564,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -578,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -592,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -634,38 +631,38 @@
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
@@ -674,44 +671,44 @@
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
